--- a/temp/provider.xlsx
+++ b/temp/provider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655B8C2B-AF85-47F1-B81B-2C3DBFB3DA0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2080E37F-40FC-40C2-B8B2-C79AB1ACB8F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{D9E7B339-03CA-4CC7-AD05-C613C7BCCB3E}"/>
   </bookViews>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>RUC</t>
   </si>
@@ -48,6 +43,12 @@
   </si>
   <si>
     <t>dirección</t>
+  </si>
+  <si>
+    <t>ACS INDUSTRIA METAL MECÁNICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ALX PERU S.A.C.</t>
   </si>
   <si>
     <t>AQUILES MARCELINO AGUILAR ZACARÍAS</t>
@@ -520,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,6 +568,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +589,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -881,13 +885,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CE5994-51F1-4F1B-B843-279FAEF9E8CC}">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
@@ -918,64 +922,64 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>10161204396</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="5">
+        <v>20458127400</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>20406502377</v>
+      <c r="A3" s="16">
+        <v>20602162657</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>20331634281</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="3">
+        <v>10161204396</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>20102259735</v>
+        <v>20406502377</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>20568749503</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>20331634281</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>10036768300</v>
+      <c r="A7" s="2">
+        <v>20102259735</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>10165286371</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>20568749503</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>20528232184</v>
+      <c r="A9" s="11">
+        <v>10036768300</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -983,7 +987,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>20516333694</v>
+        <v>10165286371</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -991,7 +995,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>20538154564</v>
+        <v>20528232184</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -999,39 +1003,39 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>20135468941</v>
+        <v>20516333694</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>20481405999</v>
+        <v>20538154564</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>20122884172</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="2">
+        <v>20135468941</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>20493190611</v>
+        <v>20481405999</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>20513855941</v>
+      <c r="A16" s="12">
+        <v>20122884172</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>20</v>
@@ -1039,23 +1043,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>20536160206</v>
+        <v>20493190611</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>20600465377</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="3">
+        <v>20513855941</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>20527721173</v>
+        <v>20536160206</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>23</v>
@@ -1063,135 +1067,135 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>20393530244</v>
+        <v>20600465377</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20498627090</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="2">
+        <v>20527721173</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20480199279</v>
+        <v>20393530244</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
+        <v>20498627090</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20480199279</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>20261624916</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="B25" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>20498631011</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>20600220668</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>20454151713</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>20458841714</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>20477313214</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>20601421934</v>
+      <c r="A30" s="5">
+        <v>20458841714</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>20477664513</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="11">
+        <v>20477313214</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>20132108294</v>
+        <v>20601421934</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>20481066680</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="12">
+        <v>20477664513</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>20505769148</v>
+        <v>20132108294</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>20531544090</v>
+      <c r="A35" s="3">
+        <v>20481066680</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>20101633820</v>
+        <v>20505769148</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>41</v>
@@ -1199,7 +1203,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>20218677640</v>
+        <v>20531544090</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>42</v>
@@ -1207,7 +1211,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>20100070465</v>
+        <v>20101633820</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>43</v>
@@ -1215,7 +1219,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>20486029839</v>
+        <v>20218677640</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>44</v>
@@ -1223,7 +1227,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>20454650043</v>
+        <v>20100070465</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>45</v>
@@ -1231,7 +1235,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>20454773986</v>
+        <v>20486029839</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>46</v>
@@ -1239,15 +1243,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>20453910513</v>
+        <v>20454650043</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>20455937206</v>
+      <c r="A43" s="2">
+        <v>20454773986</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>48</v>
@@ -1255,15 +1259,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>20498433210</v>
+        <v>20453910513</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>20454114354</v>
+      <c r="A45" s="11">
+        <v>20455937206</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>50</v>
@@ -1271,87 +1275,87 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>20454289154</v>
+        <v>20498433210</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>20455782598</v>
-      </c>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="2">
+        <v>20454114354</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>20453947352</v>
+        <v>20454289154</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>20601745641</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="3">
+        <v>20455782598</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>20524006945</v>
+    <row r="50" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>20453947352</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>20520806815</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="2">
+        <v>20601745641</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>20551034021</v>
+      <c r="A52" s="11">
+        <v>20524006945</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>20549685316</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="3">
+        <v>20520806815</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>20602305342</v>
+        <v>20551034021</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>20354180911</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="2">
+        <v>20549685316</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>20493508645</v>
+        <v>20602305342</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>61</v>
@@ -1359,7 +1363,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>20522599591</v>
+        <v>20354180911</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>62</v>
@@ -1367,47 +1371,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>20519105676</v>
+        <v>20493508645</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>20514745031</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="A59" s="3">
+        <v>20522599591</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>20130474561</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="2">
+        <v>20519105676</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>20393095301</v>
+        <v>20514745031</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>20527080445</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="A62" s="3">
+        <v>20130474561</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>20302083747</v>
+      <c r="A63" s="2">
+        <v>20393095301</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>68</v>
@@ -1415,15 +1419,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>20568135271</v>
+        <v>20527080445</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>20526949065</v>
+      <c r="A65" s="3">
+        <v>20302083747</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>70</v>
@@ -1431,7 +1435,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>20519775132</v>
+        <v>20568135271</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>71</v>
@@ -1439,15 +1443,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>20302830828</v>
+        <v>20526949065</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>20498196927</v>
+      <c r="A68" s="2">
+        <v>20519775132</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>73</v>
@@ -1455,15 +1459,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>20602513107</v>
+        <v>20302830828</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>20537328011</v>
+      <c r="A70" s="5">
+        <v>20498196927</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>75</v>
@@ -1471,7 +1475,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>20393063956</v>
+        <v>20602513107</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>76</v>
@@ -1479,15 +1483,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>20473646804</v>
+        <v>20537328011</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>20601849519</v>
+      <c r="A73" s="2">
+        <v>20393063956</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>78</v>
@@ -1495,15 +1499,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>20601333342</v>
+        <v>20473646804</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>20430948076</v>
+      <c r="A75" s="5">
+        <v>20601849519</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>80</v>
@@ -1511,7 +1515,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>10070728996</v>
+        <v>20601333342</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>81</v>
@@ -1519,7 +1523,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>20481103399</v>
+        <v>20430948076</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>82</v>
@@ -1527,7 +1531,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>20504082564</v>
+        <v>10070728996</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>83</v>
@@ -1535,7 +1539,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>20468450217</v>
+        <v>20481103399</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>84</v>
@@ -1543,7 +1547,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>20531350309</v>
+        <v>20504082564</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>85</v>
@@ -1551,7 +1555,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>20481782199</v>
+        <v>20468450217</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>86</v>
@@ -1559,7 +1563,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>20417926632</v>
+        <v>20531350309</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>87</v>
@@ -1567,7 +1571,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>20393292041</v>
+        <v>20481782199</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>88</v>
@@ -1575,7 +1579,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>20507099069</v>
+        <v>20417926632</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>89</v>
@@ -1583,111 +1587,111 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>20295008190</v>
+        <v>20393292041</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>20529722304</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="2">
+        <v>20507099069</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>20510485557</v>
+        <v>20295008190</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>20454074115</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="5">
+        <v>20529722304</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>20522969193</v>
+        <v>20510485557</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
-        <v>20539476204</v>
+      <c r="A90" s="2">
+        <v>20454074115</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
-        <v>20601697204</v>
+      <c r="A91" s="2">
+        <v>20522969193</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
-        <v>20514038199</v>
+      <c r="A92" s="11">
+        <v>20539476204</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
-        <v>20486064235</v>
-      </c>
-      <c r="B93" s="8" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>20601697204</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
-        <v>20601635632</v>
-      </c>
-      <c r="B94" s="8" t="s">
+        <v>20514038199</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
-        <v>20544431022</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>20486064235</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
-        <v>20508596732</v>
+        <v>20601635632</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
-        <v>20510421583</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="11">
+        <v>20544431022</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
-        <v>20393056232</v>
+        <v>20508596732</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>103</v>
@@ -1695,79 +1699,79 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
-        <v>20504044123</v>
+        <v>20510421583</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
-        <v>20453885578</v>
+        <v>20393056232</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
-        <v>20480028971</v>
+        <v>20504044123</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="15">
-        <v>20498476539</v>
-      </c>
-      <c r="B102" s="14" t="s">
+    <row r="102" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>20453885578</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
-        <v>20394031292</v>
+        <v>20480028971</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
+      <c r="A104" s="15">
+        <v>20498476539</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>20394031292</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
         <v>20293774308</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
-        <v>20440340858</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="10">
-        <v>20515738461</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
-        <v>20131173734</v>
-      </c>
-      <c r="B107" s="8" t="s">
+      <c r="A107" s="13">
+        <v>20440340858</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
-        <v>20513769351</v>
+      <c r="A108" s="10">
+        <v>20515738461</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>113</v>
@@ -1775,7 +1779,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
-        <v>20341019819</v>
+        <v>20131173734</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>114</v>
@@ -1783,7 +1787,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
-        <v>20329847978</v>
+        <v>20513769351</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>115</v>
@@ -1791,7 +1795,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
-        <v>20545029406</v>
+        <v>20341019819</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>116</v>
@@ -1799,10 +1803,26 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
-        <v>20556578746</v>
+        <v>20329847978</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>20545029406</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>20556578746</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
